--- a/data/trans_camb/P25_1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_1-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -625,6 +656,21 @@
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -667,6 +713,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -705,6 +766,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,0</t>
+          <t>-10,55; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,0</t>
+          <t>-10,55; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,16</t>
+          <t>-6,26; 4,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,1</t>
+          <t>0,0; 10,0</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 0,0</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 0,0</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 4,52</t>
         </is>
       </c>
     </row>
@@ -843,22 +964,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>-9,18%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-3,33%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,91%</t>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>89,07%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,22</t>
+          <t>0,0; 9,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,84</t>
+          <t>0,0; 9,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 2,16</t>
+          <t>0,0; 9,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 2,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,04</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,94</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,15</t>
         </is>
       </c>
     </row>
@@ -999,22 +1180,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-29,99%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 5,27</t>
+          <t>-10,17; 6,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 7,4</t>
+          <t>-8,49; 8,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 2,93</t>
+          <t>-5,73; 13,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 3,42</t>
+          <t>-3,19; 1,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 2,64</t>
+          <t>-3,04; 2,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 3,7</t>
+          <t>-2,01; 3,48</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; 3,3</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,45; 4,25</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 6,55</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-19,92%</t>
+          <t>-21,83%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,34%</t>
+          <t>-6,71%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,14%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>-13,74%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-15,93%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>12,58%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-20,72%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-4,09%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>33,65%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,35; 84,35</t>
+          <t>-82,66; 231,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-55,55; 116,36</t>
+          <t>-73,49; 252,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-88,04; 444,36</t>
+          <t>-53,71; 376,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-87,4; 491,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-60,18; 73,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-52,51; 92,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-78,26; 172,93</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-70,06; 227,6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-57,41; 317,96</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>11,93</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
+          <t>4,51</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
           <t>3,26</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>8,49</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 8,75</t>
+          <t>-6,57; 11,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 11,36</t>
+          <t>-5,47; 13,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 8,35</t>
+          <t>0,64; 24,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 14,03</t>
+          <t>-10,59; 12,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 6,34</t>
+          <t>-9,58; 13,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 9,78</t>
+          <t>-7,05; 17,71</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 9,05</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 10,58</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 17,5</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>57,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>165,37%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>47,38%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>55,33%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>22,86%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>42,86%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>111,62%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-53,56; 132,34</t>
+          <t>-69,22; 389,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-44,38; 166,0</t>
+          <t>-59,02; 478,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-58,92; 144,82</t>
+          <t>-10,48; 784,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-33,28; 252,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-42,54; 80,77</t>
+          <t>-82,07; 500,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-25,86; 119,73</t>
+          <t>-70,69; 609,31</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-50,32; 219,74</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-44,39; 250,97</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 410,91</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,69</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-3,67</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-2,86</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-2,08</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-0,84</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 14,2</t>
+          <t>-14,93; 18,19</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-17,37; 10,21</t>
+          <t>-15,91; 15,26</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 6,42</t>
+          <t>-14,78; 19,45</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 9,91</t>
+          <t>-23,71; 9,28</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 5,87</t>
+          <t>-20,99; 13,57</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 6,4</t>
+          <t>-20,64; 14,32</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-14,95; 9,23</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-14,02; 9,87</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-12,63; 10,91</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-9,94%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-30,04%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-13,33%</t>
+          <t>-30,52%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-14,36%</t>
+          <t>-17,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-12,45%</t>
+          <t>-15,54%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-14,43%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-10,46%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-4,25%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-42,2; 68,89</t>
+          <t>-66,27; 234,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-51,39; 55,62</t>
+          <t>-73,29; 211,81</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-63,09; 42,62</t>
+          <t>-70,31; 246,53</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-58,15; 56,77</t>
+          <t>-74,45; 72,38</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-43,31; 33,93</t>
+          <t>-67,55; 97,67</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-46,35; 31,76</t>
+          <t>-66,14; 100,61</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-56,54; 71,19</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-52,78; 77,04</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-49,7; 83,35</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 2,03</t>
+          <t>-2,97; 3,41</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 2,14</t>
+          <t>-3,1; 3,39</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 1,42</t>
+          <t>-1,03; 6,45</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 3,55</t>
+          <t>-3,69; 1,88</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 1,0</t>
+          <t>-2,98; 2,84</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,05</t>
+          <t>-1,47; 5,32</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 1,63</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 2,14</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 4,77</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-9,86%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-10,99%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-16,09%</t>
+          <t>50,41%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>-22,6%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>-5,45%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>38,7%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-9,48%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-0,66%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>45,67%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-41,64; 35,72</t>
+          <t>-44,84; 96,57</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-41,22; 36,34</t>
+          <t>-43,85; 90,98</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-47,5; 33,89</t>
+          <t>-17,43; 169,61</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 82,77</t>
+          <t>-62,65; 72,74</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-36,91; 17,68</t>
+          <t>-54,31; 112,52</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 36,91</t>
+          <t>-31,2; 194,87</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-45,16; 46,0</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-39,0; 60,29</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-10,26; 126,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
